--- a/Output/NAIDU.xlsx
+++ b/Output/NAIDU.xlsx
@@ -956,7 +956,7 @@
         <v>5.53366e+18</v>
       </c>
       <c r="T6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1176,7 +1176,7 @@
         <v>5.51474e+18</v>
       </c>
       <c r="T9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1709,7 +1709,7 @@
         <v>5.53366e+18</v>
       </c>
       <c r="T5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1929,7 +1929,7 @@
         <v>5.51474e+18</v>
       </c>
       <c r="T8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2434,11 @@
       <c r="T2" t="n">
         <v>34</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -2741,7 +2745,11 @@
       <c r="T2" t="n">
         <v>32</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
